--- a/data/532/HKCSD/Index of Retail Sales.xlsx
+++ b/data/532/HKCSD/Index of Retail Sales.xlsx
@@ -400,7 +400,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G229"/>
+  <dimension ref="A1:G230"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7971,37 +7971,70 @@
       </c>
       <c r="B229" s="1" t="inlineStr">
         <is>
-          <t>Jan p</t>
+          <t>Jan</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>33890</t>
+          <t>33835</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>121.4</t>
+          <t>121.2</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>+4.1</t>
+          <t>+4.0</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>118.5</t>
+          <t>118.3</t>
         </is>
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>+1.7</t>
+          <t>+1.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n"/>
+      <c r="B230" s="1" t="inlineStr">
+        <is>
+          <t>Feb p</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>25207</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>90.3</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>-14.6</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>-17.6</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="21">
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="A22:A24"/>
@@ -8022,6 +8055,7 @@
     <mergeCell ref="A193:A204"/>
     <mergeCell ref="A205:A216"/>
     <mergeCell ref="A217:A228"/>
+    <mergeCell ref="A229:A230"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
